--- a/Bio3/Bio3NgcRdtJ.xlsx
+++ b/Bio3/Bio3NgcRdtJ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="50" windowWidth="18290" windowHeight="9470" firstSheet="118" activeTab="123"/>
+    <workbookView xWindow="480" yWindow="108" windowWidth="18288" windowHeight="9408" firstSheet="113" activeTab="120"/>
   </bookViews>
   <sheets>
     <sheet name="r714.rdt" sheetId="127" r:id="rId1"/>
@@ -3649,12 +3649,6 @@
     <t>^fa 2 fc^　　乱七八糟的文本………　　　　　　　　　^fe 00^</t>
   </si>
   <si>
-    <t>^fa 2 fc^　　　钟楼的预备钟，应该能推动　　　　　　　　　　　　　　　　　　　^fe 00^</t>
-  </si>
-  <si>
-    <t>^fa 2 fc^　似乎最后一刻也在保护着身旁的女孩　　　　　　　　　　　　　^fe 00^</t>
-  </si>
-  <si>
     <t>^fa 2 fc^　　死体が無念を訴えているようだ　　^fe 00^</t>
   </si>
   <si>
@@ -5431,9 +5425,6 @@
     <t>^fa 0 fc^　“この橋は古くて大変危険です”　　^fe 00^</t>
   </si>
   <si>
-    <t>^fa^　^fb a0^推它下去^fe^自己跳下^fe fe^　</t>
-  </si>
-  <si>
     <t>^fa 2 fc^　　　すでに手おくれのようだ　　　　^fe 00^</t>
   </si>
   <si>
@@ -5444,9 +5435,6 @@
   </si>
   <si>
     <t>^fc^　　　　　非常满意你的表现　^fd 6e^^fc^　　　　　　请收下报酬吧！　　　　^fd 64^^fc^　　　　　　现在你自由了！　　　^fa 01 fe 2d^</t>
-  </si>
-  <si>
-    <t>^fa 0 fc^　　　　　　　欢迎！　　　　　　^fd 30^^fc^你们唯一能活命的办法　　　^fd 53^就是要打倒眼前的敌人^fc^然后活着到达指定地点　　　　　　　　^fd d0^^fc^你们的身上装有定时炸弹　　　　^fd ae^^fc^行动不讯速的话就会爆炸　^fd b0^^fc^好运！哈哈哈哈……　　　　　　　　　　^fd 2b^^fc^　　　　　　　　　　　　　　　　　　^fa 01 fe 58^</t>
   </si>
   <si>
     <t>^fa 0 fc^　　　　　　　ようこそ　　　　　　　^fd 30^^fc^　諸君が生きのびる道はただひとつ　　^fd 53^目の前の敵を撃ち倒し　　　　　　　　^fc^生きて指定ポイントまでたどりつく事だ^fd d0^^fc^　　　　体に埋め込んだ爆弹は　　　　^fd ae^^fc^行動しだいですぐにでも爆発させられる^fd b0^^fc^　　せいぜい我々を楽しませてくれ　　^fd 2b^^fc^　　　　　　　　　　　　　　　　　　^fa 01 fe 58^</t>
@@ -5932,6 +5920,22 @@
     <t>^fa^　　　　听好…　我是　多吉……　　　　^fc^　　　刚才…喝了这里的水…　　　　^fa 01 fe b0^</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>^fa 0 fc^　　　　　　　欢迎！　　　　　　^fd 30^^fc^你们唯一能活命的办法　　　^fd 53^就是要打倒眼前的敌人^fc^然后活着到达指定地点　　　　　　　　^fd d0^^fc^你们的身上装有定时炸弹　　　　^fd ae^^fc^行动不讯速的话就会爆炸　^fd b0^^fc^好运！哈哈哈哈……　　　　　　　　　　^fd 2b^^fc^　　　　　　　　　　　　　　　　　　^fa 01 fe 58^</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^fa^　^fb a0^推它下去^fe^自己跳下^fe fe^　</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^fa 2 fc^　　　钟楼备用的钟，我能推动它^fe 00^</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^fa 2 fc^　　　　　是同伴的尸体……^fc^　为了完成使命，坚持到了最后一口气^fe 00^</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -6013,74 +6017,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -6097,7 +6033,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -6380,22 +6316,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="G1" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="G2" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
   </sheetData>
@@ -6410,78 +6346,78 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="G1" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="G2" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="G3" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="G4" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="G5" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="G6" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="G7" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="G8" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="G9" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
     </row>
   </sheetData>
@@ -6496,7 +6432,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -6544,7 +6480,7 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -6559,7 +6495,7 @@
         <v>312</v>
       </c>
       <c r="G2" t="s">
-        <v>1786</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -6606,7 +6542,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -6656,16 +6592,13 @@
 
 <file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -6720,7 +6653,7 @@
         <v>134</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>1787</v>
+        <v>1783</v>
       </c>
     </row>
   </sheetData>
@@ -6735,7 +6668,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -6805,7 +6738,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -6859,7 +6792,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -6891,7 +6824,7 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -6945,7 +6878,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -6991,7 +6924,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -7173,150 +7106,150 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="G1" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="G2" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="G3" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="G4" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="G5" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="G6" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="G7" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="G8" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="G9" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="G10" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="G11" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="G12" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="G13" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="G14" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="G15" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="G16" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="G17" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="G18" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
     </row>
   </sheetData>
@@ -7331,7 +7264,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -7449,7 +7382,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -7519,7 +7452,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -7565,7 +7498,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -7659,7 +7592,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -7697,7 +7630,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -7855,7 +7788,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -7901,7 +7834,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -7947,7 +7880,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -8041,7 +7974,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -8079,38 +8012,38 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="G1" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="G2" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="G3" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="G4" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
     </row>
   </sheetData>
@@ -8125,7 +8058,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -8164,11 +8097,11 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -8239,7 +8172,7 @@
         <v>40</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1788</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -8430,7 +8363,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -8532,7 +8465,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -8568,9 +8501,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -8608,118 +8541,118 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="G1" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="G2" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="G3" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="G4" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="G5" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="G6" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="G7" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="G8" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="G9" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="G10" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="G11" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="G12" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="G13" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="G14" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
     </row>
   </sheetData>
@@ -8734,14 +8667,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="G1" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -8749,7 +8682,7 @@
         <v>134</v>
       </c>
       <c r="G2" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
   </sheetData>
@@ -8764,86 +8697,86 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="G1" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="G2" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="G3" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="G4" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="G5" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="G6" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="G7" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="G8" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="G9" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="G10" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
     </row>
   </sheetData>
@@ -8858,14 +8791,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="G1" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -8878,50 +8811,50 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="G3" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="G4" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="G5" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="G6" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="G7" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="G8" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
     </row>
   </sheetData>
@@ -8932,87 +8865,84 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="G1" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="G2" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="G3" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="G4" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="G5" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="G6" t="s">
-        <v>1773</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="G7" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="G8" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="G9" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
     </row>
   </sheetData>
@@ -9028,86 +8958,86 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="G1" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="G2" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="G3" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="G4" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="G5" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="G6" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="G7" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="G8" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="G9" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="G10" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
     </row>
   </sheetData>
@@ -9118,63 +9048,60 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="G1" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="G2" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="G3" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="G4" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="G5" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="G6" t="s">
-        <v>1774</v>
+        <v>1770</v>
       </c>
     </row>
   </sheetData>
@@ -9189,14 +9116,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="G1" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
   </sheetData>
@@ -9211,22 +9138,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="G1" t="s">
         <v>1592</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1594</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1591</v>
+      </c>
+      <c r="G2" t="s">
         <v>1593</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1595</v>
       </c>
     </row>
   </sheetData>
@@ -9241,7 +9168,7 @@
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -9325,146 +9252,146 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="G11" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="G12" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="G13" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="G14" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="G15" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="G16" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="G17" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="G18" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="G19" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="G20" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="G21" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="G22" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="G23" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="G24" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="G25" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="G26" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="G27" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="G28" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
   </sheetData>
@@ -9479,278 +9406,278 @@
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="G1" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="G2" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="G3" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="G4" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="G5" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="G6" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="G7" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="G8" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="G9" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="G10" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="G11" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="G12" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="G13" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="G14" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="G15" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="G16" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="G17" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="G18" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="G19" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="G20" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="G21" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="G22" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="G23" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="G24" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="G25" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="G26" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="G27" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="G28" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="G29" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="G30" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="G31" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="G32" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="G33" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="G34" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
   </sheetData>
@@ -9765,22 +9692,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="G1" t="s">
         <v>1508</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1510</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="G2" t="s">
         <v>1509</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1511</v>
       </c>
     </row>
   </sheetData>
@@ -9795,14 +9722,14 @@
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="G1" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -9810,39 +9737,39 @@
         <v>942</v>
       </c>
       <c r="G2" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="G3" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="G4" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="G5" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="G6" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -9879,426 +9806,426 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="G11" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="G12" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="G13" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="G14" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="G15" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="G16" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="G17" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="G18" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="G19" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="G20" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="G21" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="G22" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="G23" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="G24" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="G25" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="G26" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="G27" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="G28" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="G29" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="G30" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="G31" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="G32" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="G33" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="G34" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="G35" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="G36" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="G37" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="G38" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="G39" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="G40" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="G41" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="G42" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="G43" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="G44" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="G45" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="G46" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="G47" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="G48" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="G49" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="G50" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="G51" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="G52" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="G53" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="G54" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="G55" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="G56" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="G57" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="G58" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="G59" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="G60" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="G61" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="G62" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="G63" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
   </sheetData>
@@ -10313,62 +10240,62 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="G1" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="G2" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="G3" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="G4" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="G5" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="G6" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="G7" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
   </sheetData>
@@ -10383,14 +10310,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="G1" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
     </row>
   </sheetData>
@@ -10407,38 +10334,38 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="G1" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="G2" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="G3" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="G4" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
     </row>
   </sheetData>
@@ -10453,14 +10380,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="G1" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
   </sheetData>
@@ -10475,150 +10402,150 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="G1" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="G2" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="G3" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="G4" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="G5" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="G6" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="G7" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="G8" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="G9" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="G10" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="G11" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="G12" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="G13" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="G14" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="G15" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="G16" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="G17" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="G18" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
   </sheetData>
@@ -10633,14 +10560,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="G1" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
   </sheetData>
@@ -10651,31 +10578,28 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="G1" t="s">
         <v>1364</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1366</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="G2" t="s">
-        <v>1775</v>
+        <v>1771</v>
       </c>
     </row>
   </sheetData>
@@ -10690,14 +10614,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="G1" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
   </sheetData>
@@ -10714,46 +10638,46 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="G1" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="G2" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="G3" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="G4" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="G5" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
     </row>
   </sheetData>
@@ -10768,94 +10692,94 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="G1" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="G2" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="G3" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="G4" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="G5" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="G6" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="G7" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="G8" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="G9" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G10" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="G11" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
     </row>
   </sheetData>
@@ -10870,54 +10794,54 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="G1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="G2" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="G3" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="G4" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="G5" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="G6" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
   </sheetData>
@@ -10934,14 +10858,14 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="G1" t="s">
         <v>1317</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1319</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -10949,7 +10873,7 @@
         <v>291</v>
       </c>
       <c r="G2" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -10957,7 +10881,7 @@
         <v>292</v>
       </c>
       <c r="G3" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -10965,7 +10889,7 @@
         <v>293</v>
       </c>
       <c r="G4" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -10973,15 +10897,15 @@
         <v>134</v>
       </c>
       <c r="G5" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="G6" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
   </sheetData>
@@ -10996,62 +10920,62 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="G1" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="G2" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="G3" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="G4" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="G5" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="G6" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="G7" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
     </row>
   </sheetData>
@@ -11062,92 +10986,95 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="G1" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="G2" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="G3" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="G4" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="G5" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="G6" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="G7" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="G8" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="G9" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="G10" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
     </row>
   </sheetData>
@@ -11158,52 +11085,49 @@
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="G1" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="G2" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="G3" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="G4" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="G5" t="s">
         <v>320</v>
@@ -11211,10 +11135,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="G6" t="s">
-        <v>1776</v>
+        <v>1772</v>
       </c>
     </row>
   </sheetData>
@@ -11229,54 +11153,54 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="G1" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="G2" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="G3" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="G4" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="G5" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="G6" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
     </row>
   </sheetData>
@@ -11291,14 +11215,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="G1" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
   </sheetData>
@@ -11313,14 +11237,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="G1" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -11343,62 +11267,62 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="G1" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="G2" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="G3" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="G4" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="G5" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="G6" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="G7" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
   </sheetData>
@@ -11409,26 +11333,29 @@
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="G1" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="G2" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -11441,10 +11368,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="G4" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -11452,15 +11379,15 @@
         <v>946</v>
       </c>
       <c r="G5" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="G6" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
   </sheetData>
@@ -11475,62 +11402,62 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="G1" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="G2" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="G3" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="G4" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="G5" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="G6" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="G7" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -11565,18 +11492,21 @@
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="G1" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
   </sheetData>
@@ -11591,102 +11521,102 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="G1" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="G2" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="G3" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="G4" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="G5" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="G6" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="G7" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="G8" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="G9" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="G10" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="G11" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="G12" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -11694,7 +11624,7 @@
         <v>134</v>
       </c>
       <c r="G13" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
   </sheetData>
@@ -11709,102 +11639,102 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="G1" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="G2" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="G3" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="G4" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="G5" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="G6" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="G7" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="G8" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="G9" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="G10" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="G11" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="G12" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
   </sheetData>
@@ -11819,7 +11749,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -11857,14 +11787,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="G1" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -11872,7 +11802,7 @@
         <v>1001</v>
       </c>
       <c r="G2" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -11880,7 +11810,7 @@
         <v>1002</v>
       </c>
       <c r="G3" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -11899,11 +11829,16 @@
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -11926,7 +11861,7 @@
         <v>1166</v>
       </c>
       <c r="G3" t="s">
-        <v>1170</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -11934,7 +11869,7 @@
         <v>1167</v>
       </c>
       <c r="G4" t="s">
-        <v>1171</v>
+        <v>1788</v>
       </c>
     </row>
   </sheetData>
@@ -11948,17 +11883,17 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
       <c r="G1" t="s">
-        <v>1769</v>
+        <v>1785</v>
       </c>
     </row>
   </sheetData>
@@ -11973,7 +11908,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -11995,7 +11930,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -12145,7 +12080,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -12183,7 +12118,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -12317,7 +12252,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -12475,7 +12410,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -12497,7 +12432,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -12643,31 +12578,28 @@
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1082</v>
       </c>
       <c r="G1" t="s">
-        <v>1777</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1778</v>
+        <v>1774</v>
       </c>
       <c r="G2" t="s">
-        <v>1779</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -12675,7 +12607,7 @@
         <v>1083</v>
       </c>
       <c r="G3" t="s">
-        <v>1780</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -12683,7 +12615,7 @@
         <v>615</v>
       </c>
       <c r="G4" t="s">
-        <v>1781</v>
+        <v>1777</v>
       </c>
     </row>
   </sheetData>
@@ -12698,7 +12630,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -12736,7 +12668,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -12838,14 +12770,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="G1" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
   </sheetData>
@@ -12860,7 +12792,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -12882,7 +12814,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -13080,7 +13012,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -13118,7 +13050,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -13164,7 +13096,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -13359,7 +13291,7 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -13382,7 +13314,7 @@
         <v>959</v>
       </c>
       <c r="G3" t="s">
-        <v>1782</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -13390,7 +13322,7 @@
         <v>960</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>1783</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -13461,7 +13393,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -13555,7 +13487,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -13617,7 +13549,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -13655,7 +13587,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -13759,14 +13691,14 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
       <c r="G1" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
     </row>
   </sheetData>
@@ -13781,7 +13713,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -13893,7 +13825,7 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -14053,7 +13985,7 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -14107,7 +14039,7 @@
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -14329,7 +14261,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -14391,7 +14323,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -14409,11 +14341,16 @@
 
 <file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -14491,7 +14428,7 @@
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -14737,7 +14674,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -14945,7 +14882,7 @@
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -15173,10 +15110,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1785</v>
+        <v>1781</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>1784</v>
+        <v>1780</v>
       </c>
     </row>
   </sheetData>
@@ -15191,14 +15128,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="G1" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
   </sheetData>
@@ -15213,7 +15150,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -15275,7 +15212,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -15307,7 +15244,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -15369,7 +15306,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -15427,11 +15364,16 @@
 
 <file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -15473,11 +15415,16 @@
 
 <file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -15499,7 +15446,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -15721,7 +15668,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -15857,7 +15804,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -16079,7 +16026,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -16575,25 +16522,25 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="G1" t="s">
-        <v>1764</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1763</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1771</v>
+        <v>1761</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1767</v>
       </c>
     </row>
   </sheetData>
@@ -16608,7 +16555,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -16720,7 +16667,7 @@
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -16774,7 +16721,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -16814,7 +16761,7 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -16868,7 +16815,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -16916,7 +16863,7 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -17034,7 +16981,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -17100,13 +17047,16 @@
 
 <file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="G1" sqref="G1:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -17144,7 +17094,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -17174,7 +17124,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
